--- a/excel/永劫无间-征神之路-灵玦图鉴-收集情况.xlsx
+++ b/excel/永劫无间-征神之路-灵玦图鉴-收集情况.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project\Python\CheckLingJue\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67017AC8-DDFF-461B-91D9-EB095E9F4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DFB7F5-B405-4A9B-A7B0-32DE10D704B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="254">
   <si>
     <t>惊蛰</t>
   </si>
@@ -792,20 +791,17 @@
     <t>水火·凝水3</t>
   </si>
   <si>
-    <t>水火·游龙1</t>
-  </si>
-  <si>
-    <t>水火·游龙2</t>
-  </si>
-  <si>
-    <t>水火·游龙3</t>
+    <t>水火·游龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +814,13 @@
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -855,11 +858,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1197,73 +1197,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1283,6 +1287,9 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
@@ -1616,6 +1623,9 @@
       <c r="E8" t="s">
         <v>83</v>
       </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" t="s">
         <v>84</v>
       </c>
@@ -1681,6 +1691,9 @@
       <c r="I9" t="s">
         <v>95</v>
       </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
       <c r="K9" t="s">
         <v>96</v>
       </c>
@@ -1734,6 +1747,9 @@
       <c r="I10" t="s">
         <v>105</v>
       </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
       <c r="K10" t="s">
         <v>106</v>
       </c>
@@ -1775,6 +1791,9 @@
       <c r="E11" t="s">
         <v>113</v>
       </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" t="s">
         <v>114</v>
       </c>
@@ -1831,6 +1850,9 @@
       <c r="E12" t="s">
         <v>123</v>
       </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" t="s">
         <v>124</v>
       </c>
@@ -2033,6 +2055,9 @@
       <c r="E17" t="s">
         <v>169</v>
       </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" t="s">
         <v>170</v>
       </c>
@@ -2144,6 +2169,9 @@
       <c r="E20" t="s">
         <v>193</v>
       </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
       <c r="G20" t="s">
         <v>194</v>
       </c>
@@ -2185,6 +2213,9 @@
       <c r="E21" t="s">
         <v>200</v>
       </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
       <c r="G21" t="s">
         <v>201</v>
       </c>
@@ -2211,6 +2242,9 @@
       <c r="E22" t="s">
         <v>207</v>
       </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
       <c r="G22" t="s">
         <v>208</v>
       </c>
@@ -2237,6 +2271,9 @@
       <c r="E23" t="s">
         <v>214</v>
       </c>
+      <c r="F23" t="s">
+        <v>253</v>
+      </c>
       <c r="G23" t="s">
         <v>215</v>
       </c>
@@ -2269,11 +2306,17 @@
       <c r="C24" t="s">
         <v>220</v>
       </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
       <c r="E24" t="s">
         <v>221</v>
       </c>
       <c r="G24" t="s">
         <v>222</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
       </c>
       <c r="K24" t="s">
         <v>223</v>
@@ -2352,6 +2395,9 @@
       <c r="K28" t="s">
         <v>241</v>
       </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
@@ -2360,6 +2406,9 @@
       <c r="G29" t="s">
         <v>243</v>
       </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -2388,57 +2437,27 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:8">
       <c r="G33" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:8">
       <c r="G34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:8">
       <c r="G35" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" t="s">
-        <v>254</v>
+      <c r="H35" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" t="b">
-        <f>COUNTIF(Sheet1!$A$2:$T$37, A1)&gt;0</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/永劫无间-征神之路-灵玦图鉴-收集情况.xlsx
+++ b/excel/永劫无间-征神之路-灵玦图鉴-收集情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project\Python\CheckLingJue\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5837E290-2200-4A03-AA13-DF5D3DE205D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC2B77F-5BC4-40A8-B8B1-495C97337FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="252">
   <si>
     <t>惊蛰</t>
   </si>
@@ -74,694 +74,721 @@
     <t>元素强化1</t>
   </si>
   <si>
+    <t>白青成阳1</t>
+  </si>
+  <si>
+    <t>水火·炙焰1</t>
+  </si>
+  <si>
+    <t>蓄能弹匣1</t>
+  </si>
+  <si>
+    <t>多发夺命1</t>
+  </si>
+  <si>
+    <t>强振·风阵</t>
+  </si>
+  <si>
+    <t>护甲共鸣1</t>
+  </si>
+  <si>
+    <t>财源滚滚·金</t>
+  </si>
+  <si>
+    <t>夺魂劲意</t>
+  </si>
+  <si>
+    <t>落雷强化1</t>
+  </si>
+  <si>
+    <t>元素强化2</t>
+  </si>
+  <si>
+    <t>白青成阳2</t>
+  </si>
+  <si>
+    <t>水火·炙焰2</t>
+  </si>
+  <si>
+    <t>蓄能弹匣2</t>
+  </si>
+  <si>
+    <t>多发夺命2</t>
+  </si>
+  <si>
+    <t>强振·直伤1</t>
+  </si>
+  <si>
+    <t>护甲共鸣2</t>
+  </si>
+  <si>
+    <t>财源滚滚·紫</t>
+  </si>
+  <si>
+    <t>残念收割</t>
+  </si>
+  <si>
+    <t>落雷强化2</t>
+  </si>
+  <si>
+    <t>元素强化3</t>
+  </si>
+  <si>
+    <t>白青成阳3</t>
+  </si>
+  <si>
+    <t>水火·炙焰3</t>
+  </si>
+  <si>
+    <t>蓄能弹匣3</t>
+  </si>
+  <si>
+    <t>多发夺命3</t>
+  </si>
+  <si>
+    <t>强振·直伤2</t>
+  </si>
+  <si>
+    <t>护甲共鸣3</t>
+  </si>
+  <si>
+    <t>优享特惠</t>
+  </si>
+  <si>
+    <t>振引天锋</t>
+  </si>
+  <si>
+    <t>落雷强化3</t>
+  </si>
+  <si>
+    <t>元素凝聚1</t>
+  </si>
+  <si>
     <t>阴阳噬魂1</t>
   </si>
   <si>
-    <t>水火·炙焰1</t>
-  </si>
-  <si>
-    <t>蓄能弹匣1</t>
-  </si>
-  <si>
-    <t>多发夺命1</t>
+    <t>水火·凝水</t>
+  </si>
+  <si>
+    <t>终结之弹1</t>
+  </si>
+  <si>
+    <t>强攻·体健1</t>
+  </si>
+  <si>
+    <t>强振·直伤3</t>
+  </si>
+  <si>
+    <t>汲灵护甲1</t>
+  </si>
+  <si>
+    <t>悬赏任务1</t>
+  </si>
+  <si>
+    <t>灼热英魂</t>
+  </si>
+  <si>
+    <t>引雷·白1</t>
+  </si>
+  <si>
+    <t>元素凝聚2</t>
+  </si>
+  <si>
+    <t>阴阳噬魂2</t>
+  </si>
+  <si>
+    <t>水火·游龙</t>
+  </si>
+  <si>
+    <t>终结之弹2</t>
+  </si>
+  <si>
+    <t>强攻·体健2</t>
   </si>
   <si>
     <t>强振·破罡1</t>
   </si>
   <si>
-    <t>护甲共鸣1</t>
-  </si>
-  <si>
-    <t>财源滚滚·金</t>
-  </si>
-  <si>
-    <t>夺魂劲意</t>
-  </si>
-  <si>
-    <t>引雷·白1</t>
-  </si>
-  <si>
-    <t>元素强化2</t>
-  </si>
-  <si>
-    <t>阴阳噬魂2</t>
-  </si>
-  <si>
-    <t>水火·炙焰2</t>
-  </si>
-  <si>
-    <t>蓄能弹匣2</t>
-  </si>
-  <si>
-    <t>多发夺命2</t>
+    <t>汲灵护甲2</t>
+  </si>
+  <si>
+    <t>悬赏任务2</t>
+  </si>
+  <si>
+    <t>神魂庇护</t>
+  </si>
+  <si>
+    <t>引雷·白2</t>
+  </si>
+  <si>
+    <t>元素凝聚3</t>
+  </si>
+  <si>
+    <t>阴阳噬魂3</t>
+  </si>
+  <si>
+    <t>水火·焦火1</t>
+  </si>
+  <si>
+    <t>终结之弹3</t>
+  </si>
+  <si>
+    <t>强攻·体健3</t>
   </si>
   <si>
     <t>强振·破罡2</t>
   </si>
   <si>
-    <t>护甲共鸣2</t>
-  </si>
-  <si>
-    <t>财源滚滚·紫</t>
-  </si>
-  <si>
-    <t>残念收割</t>
-  </si>
-  <si>
-    <t>引雷·白2</t>
-  </si>
-  <si>
-    <t>元素强化3</t>
-  </si>
-  <si>
-    <t>阴阳噬魂3</t>
-  </si>
-  <si>
-    <t>水火·炙焰3</t>
-  </si>
-  <si>
-    <t>蓄能弹匣3</t>
-  </si>
-  <si>
-    <t>多发夺命3</t>
+    <t>汲灵护甲3</t>
+  </si>
+  <si>
+    <t>悬赏任务3</t>
+  </si>
+  <si>
+    <t>神威天降</t>
+  </si>
+  <si>
+    <t>引雷·白3</t>
+  </si>
+  <si>
+    <t>元素侵破1</t>
+  </si>
+  <si>
+    <t>阴阳术返1</t>
+  </si>
+  <si>
+    <t>水火·焦火2</t>
+  </si>
+  <si>
+    <t>羿之赐1</t>
+  </si>
+  <si>
+    <t>普攻强化1</t>
   </si>
   <si>
     <t>强振·破罡3</t>
   </si>
   <si>
-    <t>护甲共鸣3</t>
-  </si>
-  <si>
-    <t>优享特惠</t>
-  </si>
-  <si>
-    <t>灼热英魂</t>
-  </si>
-  <si>
-    <t>引雷·白3</t>
-  </si>
-  <si>
-    <t>元素凝聚1</t>
-  </si>
-  <si>
-    <t>阴阳术返1</t>
-  </si>
-  <si>
-    <t>水火·焦火1</t>
-  </si>
-  <si>
-    <t>羿之赐1</t>
+    <t>回甲·震荡1</t>
+  </si>
+  <si>
+    <t>财源滚滚·蓝</t>
+  </si>
+  <si>
+    <t>唤雷灵符</t>
+  </si>
+  <si>
+    <t>引雷·青1</t>
+  </si>
+  <si>
+    <t>元素侵破2</t>
+  </si>
+  <si>
+    <t>阴阳术返2</t>
+  </si>
+  <si>
+    <t>水火·焦火3</t>
+  </si>
+  <si>
+    <t>羿之赐2</t>
+  </si>
+  <si>
+    <t>普攻强化2</t>
+  </si>
+  <si>
+    <t>强振·风袭1</t>
+  </si>
+  <si>
+    <t>回甲·震荡2</t>
+  </si>
+  <si>
+    <t>黑货商人</t>
+  </si>
+  <si>
+    <t>蒸腾汽柱</t>
+  </si>
+  <si>
+    <t>引雷·青2</t>
+  </si>
+  <si>
+    <t>元素侵破3</t>
+  </si>
+  <si>
+    <t>阴阳术返3</t>
+  </si>
+  <si>
+    <t>水火·焚云1</t>
+  </si>
+  <si>
+    <t>羿之赐3</t>
+  </si>
+  <si>
+    <t>普攻强化3</t>
+  </si>
+  <si>
+    <t>强振·风袭2</t>
+  </si>
+  <si>
+    <t>回甲·震荡3</t>
+  </si>
+  <si>
+    <t>财力凝聚1</t>
+  </si>
+  <si>
+    <t>碧波囚笼</t>
+  </si>
+  <si>
+    <t>引雷·青3</t>
+  </si>
+  <si>
+    <t>元灵术返1</t>
+  </si>
+  <si>
+    <t>阴阳聚裂1</t>
+  </si>
+  <si>
+    <t>水火·焚云2</t>
+  </si>
+  <si>
+    <t>强化备弹1</t>
   </si>
   <si>
     <t>蓄力强化1</t>
   </si>
   <si>
-    <t>强振·风袭1</t>
-  </si>
-  <si>
-    <t>汲灵护甲1</t>
-  </si>
-  <si>
-    <t>悬赏任务1</t>
-  </si>
-  <si>
-    <t>神魂庇护</t>
-  </si>
-  <si>
-    <t>引雷·青1</t>
-  </si>
-  <si>
-    <t>元素凝聚2</t>
-  </si>
-  <si>
-    <t>阴阳术返2</t>
-  </si>
-  <si>
-    <t>水火·焦火2</t>
-  </si>
-  <si>
-    <t>羿之赐2</t>
+    <t>强振·风袭3</t>
+  </si>
+  <si>
+    <t>护甲强化1</t>
+  </si>
+  <si>
+    <t>财力凝聚2</t>
+  </si>
+  <si>
+    <t>有失有得</t>
+  </si>
+  <si>
+    <t>引雷·赤1</t>
+  </si>
+  <si>
+    <t>元灵术返2</t>
+  </si>
+  <si>
+    <t>阴阳聚裂2</t>
+  </si>
+  <si>
+    <t>水火·焚云3</t>
+  </si>
+  <si>
+    <t>强化备弹2</t>
   </si>
   <si>
     <t>蓄力强化2</t>
   </si>
   <si>
-    <t>强振·风袭2</t>
-  </si>
-  <si>
-    <t>汲灵护甲2</t>
-  </si>
-  <si>
-    <t>悬赏任务2</t>
-  </si>
-  <si>
-    <t>神威天降</t>
-  </si>
-  <si>
-    <t>引雷·青2</t>
-  </si>
-  <si>
-    <t>元素凝聚3</t>
-  </si>
-  <si>
-    <t>阴阳术返3</t>
-  </si>
-  <si>
-    <t>水火·焦火3</t>
-  </si>
-  <si>
-    <t>羿之赐3</t>
+    <t>强振·竭力1</t>
+  </si>
+  <si>
+    <t>护甲强化2</t>
+  </si>
+  <si>
+    <t>财力凝聚3</t>
+  </si>
+  <si>
+    <t>弃物求财</t>
+  </si>
+  <si>
+    <t>引雷·赤2</t>
+  </si>
+  <si>
+    <t>元灵术返3</t>
+  </si>
+  <si>
+    <t>阴阳聚裂3</t>
+  </si>
+  <si>
+    <t>蒸腾术返1</t>
+  </si>
+  <si>
+    <t>强化备弹3</t>
   </si>
   <si>
     <t>蓄力强化3</t>
   </si>
   <si>
-    <t>强振·风袭3</t>
-  </si>
-  <si>
-    <t>汲灵护甲3</t>
-  </si>
-  <si>
-    <t>悬赏任务3</t>
-  </si>
-  <si>
-    <t>振引天锋</t>
-  </si>
-  <si>
-    <t>引雷·青3</t>
-  </si>
-  <si>
-    <t>元素侵破1</t>
+    <t>强振·竭力2</t>
+  </si>
+  <si>
+    <t>护甲强化3</t>
+  </si>
+  <si>
+    <t>强攻·挥金1</t>
+  </si>
+  <si>
+    <t>无用顽石</t>
+  </si>
+  <si>
+    <t>引雷·赤3</t>
+  </si>
+  <si>
+    <t>元素相激1</t>
   </si>
   <si>
     <t>青白返阴1</t>
   </si>
   <si>
-    <t>水火·焚云1</t>
-  </si>
-  <si>
-    <t>终结之弹1</t>
+    <t>蒸腾术返2</t>
+  </si>
+  <si>
+    <t>弹无虚发1</t>
+  </si>
+  <si>
+    <t>破罡·强袭1</t>
+  </si>
+  <si>
+    <t>强振·竭力3</t>
+  </si>
+  <si>
+    <t>护甲强固1</t>
+  </si>
+  <si>
+    <t>强攻·挥金2</t>
+  </si>
+  <si>
+    <t>引雷·四象1</t>
+  </si>
+  <si>
+    <t>元素相激2</t>
+  </si>
+  <si>
+    <t>青白返阴2</t>
+  </si>
+  <si>
+    <t>蒸腾术返3</t>
+  </si>
+  <si>
+    <t>弹无虚发2</t>
+  </si>
+  <si>
+    <t>破罡·强袭2</t>
+  </si>
+  <si>
+    <t>强振·魂燃1</t>
+  </si>
+  <si>
+    <t>护甲强固2</t>
+  </si>
+  <si>
+    <t>强攻·挥金3</t>
+  </si>
+  <si>
+    <t>引雷·四象2</t>
+  </si>
+  <si>
+    <t>元素相激3</t>
+  </si>
+  <si>
+    <t>青白返阴3</t>
+  </si>
+  <si>
+    <t>水火·回春1</t>
+  </si>
+  <si>
+    <t>弹无虚发3</t>
+  </si>
+  <si>
+    <t>破罡·强袭3</t>
+  </si>
+  <si>
+    <t>强振·魂燃2</t>
+  </si>
+  <si>
+    <t>护甲强固3</t>
+  </si>
+  <si>
+    <t>引雷·四象3</t>
+  </si>
+  <si>
+    <t>元素转化1</t>
+  </si>
+  <si>
+    <t>青白相激1</t>
+  </si>
+  <si>
+    <t>水火·回春2</t>
+  </si>
+  <si>
+    <t>精备弹匣1</t>
+  </si>
+  <si>
+    <t>焕然一新1</t>
+  </si>
+  <si>
+    <t>强振·魂燃3</t>
+  </si>
+  <si>
+    <t>回甲·自动1</t>
+  </si>
+  <si>
+    <t>落雷相激1</t>
+  </si>
+  <si>
+    <t>元素转化2</t>
+  </si>
+  <si>
+    <t>青白相激2</t>
+  </si>
+  <si>
+    <t>水火·回春3</t>
+  </si>
+  <si>
+    <t>精备弹匣2</t>
+  </si>
+  <si>
+    <t>焕然一新2</t>
+  </si>
+  <si>
+    <t>强振1</t>
+  </si>
+  <si>
+    <t>回甲·自动2</t>
+  </si>
+  <si>
+    <t>落雷相激2</t>
+  </si>
+  <si>
+    <t>元素转化3</t>
+  </si>
+  <si>
+    <t>青白相激3</t>
+  </si>
+  <si>
+    <t>四象烈刃1</t>
+  </si>
+  <si>
+    <t>精备弹匣3</t>
+  </si>
+  <si>
+    <t>焕然一新3</t>
+  </si>
+  <si>
+    <t>强振2</t>
+  </si>
+  <si>
+    <t>回甲·自动3</t>
+  </si>
+  <si>
+    <t>落雷相激3</t>
+  </si>
+  <si>
+    <t>元素蓄能1</t>
+  </si>
+  <si>
+    <t>阴浊侵蚀1</t>
+  </si>
+  <si>
+    <t>四象烈刃2</t>
+  </si>
+  <si>
+    <t>远程强化1</t>
+  </si>
+  <si>
+    <t>强振3</t>
+  </si>
+  <si>
+    <t>疗愈术返1</t>
+  </si>
+  <si>
+    <t>雷霆术返1</t>
+  </si>
+  <si>
+    <t>元素蓄能2</t>
+  </si>
+  <si>
+    <t>阴浊侵蚀2</t>
+  </si>
+  <si>
+    <t>四象烈刃3</t>
+  </si>
+  <si>
+    <t>远程强化2</t>
+  </si>
+  <si>
+    <t>强振相激1</t>
+  </si>
+  <si>
+    <t>疗愈术返2</t>
+  </si>
+  <si>
+    <t>雷霆术返2</t>
+  </si>
+  <si>
+    <t>元素蓄能3</t>
+  </si>
+  <si>
+    <t>阴浊侵蚀3</t>
+  </si>
+  <si>
+    <t>火炽燎原1</t>
+  </si>
+  <si>
+    <t>远程强化3</t>
+  </si>
+  <si>
+    <t>强振相激2</t>
+  </si>
+  <si>
+    <t>疗愈术返3</t>
+  </si>
+  <si>
+    <t>雷霆术返3</t>
+  </si>
+  <si>
+    <t>元素强激1</t>
+  </si>
+  <si>
+    <t>阳蚀侵破1</t>
+  </si>
+  <si>
+    <t>火炽燎原2</t>
   </si>
   <si>
     <t>割刃·武备匣1</t>
   </si>
   <si>
-    <t>强振·竭力1</t>
-  </si>
-  <si>
-    <t>回甲·震荡1</t>
-  </si>
-  <si>
-    <t>财源滚滚·蓝</t>
-  </si>
-  <si>
-    <t>唤雷灵符</t>
-  </si>
-  <si>
-    <t>引雷·赤1</t>
-  </si>
-  <si>
-    <t>元素侵破2</t>
-  </si>
-  <si>
-    <t>青白返阴2</t>
-  </si>
-  <si>
-    <t>水火·焚云2</t>
-  </si>
-  <si>
-    <t>终结之弹2</t>
+    <t>强振相激3</t>
+  </si>
+  <si>
+    <t>含甲克敌1</t>
+  </si>
+  <si>
+    <t>落雷连环1</t>
+  </si>
+  <si>
+    <t>元素强激2</t>
+  </si>
+  <si>
+    <t>阳蚀侵破2</t>
+  </si>
+  <si>
+    <t>火炽燎原3</t>
   </si>
   <si>
     <t>割刃·武备匣2</t>
   </si>
   <si>
-    <t>强振·竭力2</t>
-  </si>
-  <si>
-    <t>回甲·震荡2</t>
-  </si>
-  <si>
-    <t>黑货商人</t>
-  </si>
-  <si>
-    <t>蒸腾汽柱</t>
-  </si>
-  <si>
-    <t>引雷·赤2</t>
-  </si>
-  <si>
-    <t>元素侵破3</t>
-  </si>
-  <si>
-    <t>青白返阴3</t>
-  </si>
-  <si>
-    <t>水火·焚云3</t>
-  </si>
-  <si>
-    <t>终结之弹3</t>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>含甲克敌2</t>
+  </si>
+  <si>
+    <t>落雷连环2</t>
+  </si>
+  <si>
+    <t>元素强激3</t>
+  </si>
+  <si>
+    <t>阳蚀侵破3</t>
+  </si>
+  <si>
+    <t>水火·破罡1</t>
   </si>
   <si>
     <t>割刃·武备匣3</t>
   </si>
   <si>
-    <t>强振·竭力3</t>
-  </si>
-  <si>
-    <t>回甲·震荡3</t>
-  </si>
-  <si>
-    <t>财力凝聚1</t>
-  </si>
-  <si>
-    <t>碧波囚笼</t>
-  </si>
-  <si>
-    <t>引雷·赤3</t>
-  </si>
-  <si>
-    <t>元灵术返1</t>
-  </si>
-  <si>
-    <t>阴阳聚裂1</t>
-  </si>
-  <si>
-    <t>蒸腾术返1</t>
-  </si>
-  <si>
-    <t>强化备弹1</t>
+    <t>含甲克敌3</t>
+  </si>
+  <si>
+    <t>落雷连环3</t>
+  </si>
+  <si>
+    <t>水火·破罡2</t>
   </si>
   <si>
     <t>顽武1</t>
   </si>
   <si>
-    <t>强振·魂燃1</t>
-  </si>
-  <si>
-    <t>护甲强化1</t>
-  </si>
-  <si>
-    <t>财力凝聚2</t>
-  </si>
-  <si>
-    <t>有失有得</t>
-  </si>
-  <si>
-    <t>落雷相激1</t>
-  </si>
-  <si>
-    <t>元灵术返2</t>
-  </si>
-  <si>
-    <t>阴阳聚裂2</t>
-  </si>
-  <si>
-    <t>蒸腾术返2</t>
-  </si>
-  <si>
-    <t>强化备弹2</t>
+    <t>连环雷阵1</t>
+  </si>
+  <si>
+    <t>水火·破罡3</t>
   </si>
   <si>
     <t>顽武2</t>
   </si>
   <si>
-    <t>强振·魂燃2</t>
-  </si>
-  <si>
-    <t>护甲强化2</t>
-  </si>
-  <si>
-    <t>财力凝聚3</t>
-  </si>
-  <si>
-    <t>弃物求财</t>
-  </si>
-  <si>
-    <t>落雷相激2</t>
-  </si>
-  <si>
-    <t>元灵术返3</t>
-  </si>
-  <si>
-    <t>阴阳聚裂3</t>
-  </si>
-  <si>
-    <t>蒸腾术返3</t>
-  </si>
-  <si>
-    <t>强化备弹3</t>
+    <t>连环雷阵2</t>
+  </si>
+  <si>
+    <t>水火强化1</t>
   </si>
   <si>
     <t>顽武3</t>
   </si>
   <si>
-    <t>强振·魂燃3</t>
-  </si>
-  <si>
-    <t>护甲强化3</t>
-  </si>
-  <si>
-    <t>强攻·挥金1</t>
-  </si>
-  <si>
-    <t>无用顽石</t>
-  </si>
-  <si>
-    <t>落雷相激3</t>
-  </si>
-  <si>
-    <t>元素相激1</t>
-  </si>
-  <si>
-    <t>阳蚀侵破1</t>
-  </si>
-  <si>
-    <t>水火·回春1</t>
-  </si>
-  <si>
-    <t>弹无虚发1</t>
+    <t>连环雷阵3</t>
+  </si>
+  <si>
+    <t>水火强化2</t>
   </si>
   <si>
     <t>强攻1</t>
   </si>
   <si>
-    <t>强振1</t>
-  </si>
-  <si>
-    <t>护甲强固1</t>
-  </si>
-  <si>
-    <t>强攻·挥金2</t>
-  </si>
-  <si>
-    <t>雷霆术返1</t>
-  </si>
-  <si>
-    <t>元素相激2</t>
-  </si>
-  <si>
-    <t>阳蚀侵破2</t>
-  </si>
-  <si>
-    <t>水火·回春2</t>
-  </si>
-  <si>
-    <t>弹无虚发2</t>
+    <t>引雷·霸1</t>
+  </si>
+  <si>
+    <t>水火强化3</t>
   </si>
   <si>
     <t>强攻2</t>
   </si>
   <si>
-    <t>强振2</t>
-  </si>
-  <si>
-    <t>护甲强固2</t>
-  </si>
-  <si>
-    <t>强攻·挥金3</t>
-  </si>
-  <si>
-    <t>雷霆术返2</t>
-  </si>
-  <si>
-    <t>元素相激3</t>
-  </si>
-  <si>
-    <t>阳蚀侵破3</t>
-  </si>
-  <si>
-    <t>水火·回春3</t>
-  </si>
-  <si>
-    <t>弹无虚发3</t>
+    <t>引雷·霸2</t>
+  </si>
+  <si>
+    <t>水火·炎爆1</t>
   </si>
   <si>
     <t>强攻3</t>
   </si>
   <si>
-    <t>强振3</t>
-  </si>
-  <si>
-    <t>护甲强固3</t>
-  </si>
-  <si>
-    <t>雷霆术返3</t>
-  </si>
-  <si>
-    <t>元素转化1</t>
-  </si>
-  <si>
-    <t>青白相激1</t>
-  </si>
-  <si>
-    <t>四象烈刃1</t>
-  </si>
-  <si>
-    <t>精备弹匣1</t>
-  </si>
-  <si>
-    <t>强攻·体健1</t>
-  </si>
-  <si>
-    <t>强振相激1</t>
-  </si>
-  <si>
-    <t>回甲·自动1</t>
-  </si>
-  <si>
-    <t>落雷强化1</t>
-  </si>
-  <si>
-    <t>元素转化2</t>
-  </si>
-  <si>
-    <t>青白相激2</t>
-  </si>
-  <si>
-    <t>四象烈刃2</t>
-  </si>
-  <si>
-    <t>精备弹匣2</t>
-  </si>
-  <si>
-    <t>强攻·体健2</t>
-  </si>
-  <si>
-    <t>强振相激2</t>
-  </si>
-  <si>
-    <t>回甲·自动2</t>
-  </si>
-  <si>
-    <t>落雷强化2</t>
-  </si>
-  <si>
-    <t>元素转化3</t>
-  </si>
-  <si>
-    <t>青白相激3</t>
-  </si>
-  <si>
-    <t>四象烈刃3</t>
-  </si>
-  <si>
-    <t>精备弹匣3</t>
-  </si>
-  <si>
-    <t>强攻·体健3</t>
-  </si>
-  <si>
-    <t>强振相激3</t>
-  </si>
-  <si>
-    <t>回甲·自动3</t>
-  </si>
-  <si>
-    <t>落雷强化3</t>
-  </si>
-  <si>
-    <t>元素强激1</t>
-  </si>
-  <si>
-    <t>白青成阳1</t>
-  </si>
-  <si>
-    <t>火炽燎原1</t>
-  </si>
-  <si>
-    <t>普攻强化1</t>
-  </si>
-  <si>
-    <t>强振·直伤1</t>
-  </si>
-  <si>
-    <t>疗愈术返1</t>
-  </si>
-  <si>
-    <t>落雷连环1</t>
-  </si>
-  <si>
-    <t>元素强激2</t>
-  </si>
-  <si>
-    <t>白青成阳2</t>
-  </si>
-  <si>
-    <t>火炽燎原2</t>
-  </si>
-  <si>
-    <t>普攻强化2</t>
-  </si>
-  <si>
-    <t>强振·直伤2</t>
-  </si>
-  <si>
-    <t>疗愈术返2</t>
-  </si>
-  <si>
-    <t>落雷连环2</t>
-  </si>
-  <si>
-    <t>元素强激3</t>
-  </si>
-  <si>
-    <t>白青成阳3</t>
-  </si>
-  <si>
-    <t>火炽燎原3</t>
-  </si>
-  <si>
-    <t>普攻强化3</t>
-  </si>
-  <si>
-    <t>强振·直伤3</t>
-  </si>
-  <si>
-    <t>疗愈术返3</t>
-  </si>
-  <si>
-    <t>落雷连环3</t>
-  </si>
-  <si>
-    <t>元素蓄能1</t>
-  </si>
-  <si>
-    <t>阴浊侵蚀1</t>
-  </si>
-  <si>
-    <t>水火·破罡1</t>
-  </si>
-  <si>
-    <t>焕然一新1</t>
-  </si>
-  <si>
-    <t>强振·风阵</t>
-  </si>
-  <si>
-    <t>含甲克敌1</t>
-  </si>
-  <si>
-    <t>连环雷阵1</t>
-  </si>
-  <si>
-    <t>元素蓄能2</t>
-  </si>
-  <si>
-    <t>阴浊侵蚀2</t>
-  </si>
-  <si>
-    <t>水火·破罡2</t>
-  </si>
-  <si>
-    <t>焕然一新2</t>
-  </si>
-  <si>
-    <t>含甲克敌2</t>
-  </si>
-  <si>
-    <t>连环雷阵2</t>
-  </si>
-  <si>
-    <t>元素蓄能3</t>
-  </si>
-  <si>
-    <t>阴浊侵蚀3</t>
-  </si>
-  <si>
-    <t>水火·破罡3</t>
-  </si>
-  <si>
-    <t>焕然一新3</t>
-  </si>
-  <si>
-    <t>含甲克敌3</t>
-  </si>
-  <si>
-    <t>连环雷阵3</t>
-  </si>
-  <si>
-    <t>水火·炎爆1</t>
-  </si>
-  <si>
-    <t>远程强化1</t>
-  </si>
-  <si>
-    <t>引雷·霸1</t>
+    <t>引雷·霸3</t>
   </si>
   <si>
     <t>水火·炎爆2</t>
   </si>
   <si>
-    <t>远程强化2</t>
-  </si>
-  <si>
-    <t>引雷·霸2</t>
-  </si>
-  <si>
     <t>水火·炎爆3</t>
   </si>
   <si>
-    <t>远程强化3</t>
-  </si>
-  <si>
-    <t>引雷·霸3</t>
-  </si>
-  <si>
-    <t>水火强化1</t>
-  </si>
-  <si>
-    <t>引雷·四象1</t>
-  </si>
-  <si>
-    <t>水火强化2</t>
-  </si>
-  <si>
-    <t>引雷·四象2</t>
-  </si>
-  <si>
-    <t>水火强化3</t>
-  </si>
-  <si>
-    <t>引雷·四象3</t>
-  </si>
-  <si>
-    <t>水火·凝水</t>
-  </si>
-  <si>
-    <t>水火·游龙</t>
-  </si>
-  <si>
-    <t>破罡·强袭1</t>
-  </si>
-  <si>
-    <t>破罡·强袭2</t>
-  </si>
-  <si>
-    <t>破罡·强袭3</t>
-  </si>
-  <si>
-    <t>？？？</t>
+    <t>御劲·减伤1</t>
+  </si>
+  <si>
+    <t>御劲·减伤2</t>
+  </si>
+  <si>
+    <t>御劲·减伤3</t>
+  </si>
+  <si>
+    <t>四象·愈1</t>
+  </si>
+  <si>
+    <t>四象·愈2</t>
+  </si>
+  <si>
+    <t>四象·愈3</t>
+  </si>
+  <si>
+    <t>强振·愈1</t>
+  </si>
+  <si>
+    <t>强振·愈2</t>
+  </si>
+  <si>
+    <t>强振·愈3</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1271,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1277,7 +1304,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>COUNTA(B2:B33) &amp; "/" &amp; COUNTA(A2:A33)</f>
-        <v>21/31</v>
+        <v>25/31</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1290,15 +1317,15 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="str">
-        <f>COUNTA(F2:F33) &amp; "/" &amp; COUNTA(E2:E33)</f>
-        <v>10/24</v>
+        <f>COUNTA(F5:F33) &amp; "/" &amp; COUNTA(E5:E33)</f>
+        <v>11/21</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>COUNTA(H2:H33) &amp; "/" &amp; COUNTA(G2:G33)</f>
-        <v>19/32</v>
+        <v>20/32</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>4</v>
@@ -1312,21 +1339,21 @@
       </c>
       <c r="L1" s="4" t="str">
         <f>COUNTA(L2:L33) &amp; "/" &amp; COUNTA(K2:K33)</f>
-        <v>28/30</v>
+        <v>29/30</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="4" t="str">
         <f>COUNTA(N2:N33) &amp; "/" &amp; COUNTA(M2:M33)</f>
-        <v>15/25</v>
+        <v>19/25</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="4" t="str">
         <f>COUNTA(P2:P33) &amp; "/" &amp; COUNTA(O2:O33)</f>
-        <v>20/30</v>
+        <v>23/30</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>8</v>
@@ -1340,7 +1367,7 @@
       </c>
       <c r="T1" s="5" t="str">
         <f>COUNTA(T2:T33) &amp; "/" &amp; COUNTA(S2:S33)</f>
-        <v>3/12</v>
+        <v>6/12</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1356,10 +1383,10 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1381,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>11</v>
@@ -1407,7 +1434,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1419,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1443,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>11</v>
@@ -1461,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>11</v>
@@ -1469,7 +1496,7 @@
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1481,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -1505,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -1523,7 +1550,7 @@
         <v>11</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>11</v>
@@ -1531,7 +1558,7 @@
     </row>
     <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1542,32 +1569,32 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>11</v>
@@ -1585,13 +1612,15 @@
         <v>11</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1605,27 +1634,29 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>11</v>
@@ -1643,13 +1674,15 @@
         <v>11</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1663,27 +1696,29 @@
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>11</v>
@@ -1701,13 +1736,15 @@
         <v>11</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1725,25 +1762,25 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>11</v>
@@ -1761,13 +1798,13 @@
         <v>11</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1783,23 +1820,23 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>11</v>
@@ -1817,13 +1854,13 @@
         <v>11</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -1839,25 +1876,27 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O10" s="1" t="s">
         <v>98</v>
       </c>
@@ -1871,13 +1910,13 @@
         <v>11</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1889,13 +1928,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
@@ -1907,15 +1946,17 @@
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O11" s="1" t="s">
         <v>108</v>
       </c>
@@ -1929,13 +1970,13 @@
         <v>11</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1947,13 +1988,11 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -1963,13 +2002,13 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1985,13 +2024,13 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -2001,11 +2040,11 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -2015,13 +2054,13 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>11</v>
@@ -2045,7 +2084,7 @@
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -2057,13 +2096,13 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -2075,13 +2114,13 @@
         <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
@@ -2099,7 +2138,7 @@
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -2109,11 +2148,11 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -2121,13 +2160,13 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>11</v>
@@ -2147,7 +2186,7 @@
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -2157,11 +2196,11 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
@@ -2171,13 +2210,13 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>11</v>
@@ -2195,7 +2234,7 @@
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -2207,13 +2246,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
@@ -2223,13 +2262,13 @@
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
@@ -2245,7 +2284,7 @@
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -2257,11 +2296,13 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
@@ -2269,13 +2310,13 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>11</v>
@@ -2293,19 +2334,21 @@
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
@@ -2315,13 +2358,13 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>11</v>
@@ -2337,11 +2380,13 @@
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -2353,19 +2398,19 @@
         <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
@@ -2381,13 +2426,13 @@
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -2397,19 +2442,19 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>11</v>
@@ -2427,19 +2472,21 @@
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>11</v>
@@ -2447,15 +2494,17 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O22" s="1" t="s">
         <v>201</v>
       </c>
@@ -2467,33 +2516,35 @@
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
@@ -2515,33 +2566,37 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N24" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O24" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2553,17 +2608,19 @@
       <c r="A25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>11</v>
@@ -2571,17 +2628,17 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2595,33 +2652,33 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P26" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2635,19 +2692,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>11</v>
@@ -2655,9 +2712,11 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P27" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2665,17 +2724,17 @@
     </row>
     <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>11</v>
@@ -2683,13 +2742,15 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L28" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2699,7 +2760,7 @@
     </row>
     <row r="29" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2707,13 +2768,15 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>11</v>
@@ -2721,9 +2784,11 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P29" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2731,7 +2796,7 @@
     </row>
     <row r="30" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -2741,13 +2806,13 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
@@ -2755,7 +2820,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2765,7 +2830,7 @@
     </row>
     <row r="31" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2773,19 +2838,21 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2795,7 +2862,7 @@
     </row>
     <row r="32" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2803,7 +2870,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2827,7 +2894,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2846,6 +2913,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>